--- a/4410/Voltage_Data.xlsx
+++ b/4410/Voltage_Data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\logan\git-repositories\Spring2025\4410\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Logan\Documents\GitHub\Spring2025\4410\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBE839C9-E2F7-44FF-8F48-1DCCFB1235AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11901624-36E8-48A5-BF08-5FC16A0FF630}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,10 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="5">
-  <si>
-    <t>Calibration</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>L</t>
   </si>
@@ -51,6 +48,21 @@
   </si>
   <si>
     <t>V</t>
+  </si>
+  <si>
+    <t>Calibration Force (N)</t>
+  </si>
+  <si>
+    <t>L (V)</t>
+  </si>
+  <si>
+    <t>D (V)</t>
+  </si>
+  <si>
+    <t>L(N)</t>
+  </si>
+  <si>
+    <t>D(N)</t>
   </si>
 </sst>
 </file>
@@ -110,6 +122,1223 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Lift</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.17168482064741908"/>
+                  <c:y val="0.10285906969962089"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>4.3230400000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.8182619718309799E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.19155152941176468</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$2:$C$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-DA50-4A07-A2E9-1DE204B867A2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Drag</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$2:$B$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1.4946670000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.0007681034482771E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.13351058064516128</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$2:$C$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-DA50-4A07-A2E9-1DE204B867A2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="521449663"/>
+        <c:axId val="521442463"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="521449663"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Measured Voltage (V)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="521442463"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="521442463"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Force (N)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="521449663"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:legendEntry>
+        <c:idx val="3"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="4"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>123824</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>354807</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>9524</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{386E79F3-34C9-F969-2A50-877A57A5547F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -375,10 +1604,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:K42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="L23" sqref="L23:L28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -386,63 +1615,856 @@
     <col min="1" max="1" width="11.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="I1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" t="s">
-        <v>1</v>
-      </c>
-      <c r="I1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2">
+      <c r="J1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>4.3230400000000002E-3</v>
+      </c>
+      <c r="B2" s="1">
+        <v>1.4946670000000001E-3</v>
+      </c>
+      <c r="C2">
         <v>0</v>
       </c>
-      <c r="B2" s="1">
-        <v>4.3230400000000002E-3</v>
-      </c>
-      <c r="C2" s="1">
-        <v>1.4946670000000001E-3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F2">
+        <v>1.2</v>
+      </c>
+      <c r="G2">
+        <v>4.5335310765027304</v>
+      </c>
+      <c r="H2">
+        <v>2.7571639344262291E-3</v>
+      </c>
+      <c r="I2">
+        <v>6.8672896174863359E-3</v>
+      </c>
+      <c r="J2">
+        <f>H2*75.424+0.0971</f>
+        <v>0.3050563325901639</v>
+      </c>
+      <c r="K2">
+        <f>I2*53.411-0.2353</f>
+        <v>0.13148880575956268</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3">
+        <v>9.8182619718309799E-2</v>
+      </c>
+      <c r="B3">
+        <v>6.0007681034482771E-2</v>
+      </c>
+      <c r="C3">
         <v>5</v>
       </c>
-      <c r="B3">
-        <v>9.8182619718309799E-2</v>
-      </c>
-      <c r="C3">
-        <v>6.0007681034482771E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F3">
+        <v>1.2</v>
+      </c>
+      <c r="G3">
+        <v>9.5999665424528331</v>
+      </c>
+      <c r="H3">
+        <v>-4.0962735849056571E-4</v>
+      </c>
+      <c r="I3">
+        <v>2.142689622641511E-2</v>
+      </c>
+      <c r="J3">
+        <f t="shared" ref="J3:J42" si="0">H3*75.424+0.0971</f>
+        <v>6.620426611320758E-2</v>
+      </c>
+      <c r="K3">
+        <f t="shared" ref="K3:K42" si="1">I3*53.411-0.2353</f>
+        <v>0.90913195434905747</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4">
+        <v>0.19155152941176468</v>
+      </c>
+      <c r="B4">
+        <v>0.13351058064516128</v>
+      </c>
+      <c r="C4">
         <v>10</v>
       </c>
-      <c r="B4">
-        <v>0.19155152941176468</v>
-      </c>
-      <c r="C4">
-        <v>0.13351058064516128</v>
+      <c r="F4">
+        <v>1.2</v>
+      </c>
+      <c r="G4">
+        <v>14.514600456410252</v>
+      </c>
+      <c r="H4">
+        <v>-4.1261538461537975E-5</v>
+      </c>
+      <c r="I4">
+        <v>4.8728087179487178E-2</v>
+      </c>
+      <c r="J4">
+        <f t="shared" si="0"/>
+        <v>9.3987889723076964E-2</v>
+      </c>
+      <c r="K4">
+        <f t="shared" si="1"/>
+        <v>2.3673158643435896</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F5">
+        <v>1.2</v>
+      </c>
+      <c r="G5">
+        <v>19.422864317180625</v>
+      </c>
+      <c r="H5">
+        <v>1.9331361233480157E-2</v>
+      </c>
+      <c r="I5">
+        <v>9.6138797356828176E-2</v>
+      </c>
+      <c r="J5">
+        <f t="shared" si="0"/>
+        <v>1.5551485896740074</v>
+      </c>
+      <c r="K5">
+        <f t="shared" si="1"/>
+        <v>4.8995693056255503</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F6">
+        <v>1.2</v>
+      </c>
+      <c r="G6">
+        <v>24.344774025751065</v>
+      </c>
+      <c r="H6">
+        <v>2.764709012875536E-2</v>
+      </c>
+      <c r="I6">
+        <v>0.13092375107296136</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="0"/>
+        <v>2.1823541258712447</v>
+      </c>
+      <c r="K6">
+        <f t="shared" si="1"/>
+        <v>6.7574684685579403</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F7">
+        <v>1.2</v>
+      </c>
+      <c r="G7">
+        <v>29.213480217616571</v>
+      </c>
+      <c r="H7">
+        <v>9.9747056994818659E-2</v>
+      </c>
+      <c r="I7">
+        <v>0.20217007253886016</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="0"/>
+        <v>7.6204220267772032</v>
+      </c>
+      <c r="K7">
+        <f t="shared" si="1"/>
+        <v>10.56280574437306</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F9">
+        <v>19.600000000000001</v>
+      </c>
+      <c r="G9">
+        <v>4.5489770000000025</v>
+      </c>
+      <c r="H9">
+        <v>1.2852085201793715E-2</v>
+      </c>
+      <c r="I9">
+        <v>3.8336188340807155E-3</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="0"/>
+        <v>1.0664556742600892</v>
+      </c>
+      <c r="K9">
+        <f t="shared" si="1"/>
+        <v>-3.0542584452914912E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F10">
+        <v>19.600000000000001</v>
+      </c>
+      <c r="G10">
+        <v>9.4612718194444412</v>
+      </c>
+      <c r="H10">
+        <v>4.6031527777777796E-2</v>
+      </c>
+      <c r="I10">
+        <v>1.9473319444444446E-2</v>
+      </c>
+      <c r="J10">
+        <f t="shared" si="0"/>
+        <v>3.5689819511111129</v>
+      </c>
+      <c r="K10">
+        <f t="shared" si="1"/>
+        <v>0.80478946484722225</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F11">
+        <v>19.600000000000001</v>
+      </c>
+      <c r="G11">
+        <v>14.368276886010365</v>
+      </c>
+      <c r="H11">
+        <v>9.9366797927461156E-2</v>
+      </c>
+      <c r="I11">
+        <v>4.2925704663212459E-2</v>
+      </c>
+      <c r="J11">
+        <f t="shared" si="0"/>
+        <v>7.5917413668808313</v>
+      </c>
+      <c r="K11">
+        <f t="shared" si="1"/>
+        <v>2.0574048117668409</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F12">
+        <v>19.600000000000001</v>
+      </c>
+      <c r="G12">
+        <v>19.303488711538474</v>
+      </c>
+      <c r="H12">
+        <v>0.17032532211538468</v>
+      </c>
+      <c r="I12">
+        <v>7.4424288461538438E-2</v>
+      </c>
+      <c r="J12">
+        <f t="shared" si="0"/>
+        <v>12.943717095230774</v>
+      </c>
+      <c r="K12">
+        <f t="shared" si="1"/>
+        <v>3.7397756710192294</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F13">
+        <v>19.600000000000001</v>
+      </c>
+      <c r="G13">
+        <v>24.224769608695652</v>
+      </c>
+      <c r="H13">
+        <v>0.26702018357487906</v>
+      </c>
+      <c r="I13">
+        <v>0.11634881159420277</v>
+      </c>
+      <c r="J13">
+        <f t="shared" si="0"/>
+        <v>20.236830325951679</v>
+      </c>
+      <c r="K13">
+        <f t="shared" si="1"/>
+        <v>5.9790063760579644</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F14">
+        <v>19.600000000000001</v>
+      </c>
+      <c r="G14">
+        <v>29.098814066666648</v>
+      </c>
+      <c r="H14">
+        <v>0.38295287619047635</v>
+      </c>
+      <c r="I14">
+        <v>0.1668580095238095</v>
+      </c>
+      <c r="J14">
+        <f t="shared" si="0"/>
+        <v>28.980937733790491</v>
+      </c>
+      <c r="K14">
+        <f t="shared" si="1"/>
+        <v>8.6767531466761891</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F16">
+        <v>40.4</v>
+      </c>
+      <c r="G16">
+        <v>4.4743723894230802</v>
+      </c>
+      <c r="H16">
+        <v>1.0295754807692308E-2</v>
+      </c>
+      <c r="I16">
+        <v>4.5228798076923085E-3</v>
+      </c>
+      <c r="J16">
+        <f t="shared" si="0"/>
+        <v>0.87364701061538463</v>
+      </c>
+      <c r="K16">
+        <f t="shared" si="1"/>
+        <v>6.2715334086538843E-3</v>
+      </c>
+    </row>
+    <row r="17" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="F17">
+        <v>40.4</v>
+      </c>
+      <c r="G17">
+        <v>9.4451362761904729</v>
+      </c>
+      <c r="H17">
+        <v>3.8123914285714308E-2</v>
+      </c>
+      <c r="I17">
+        <v>1.9732452380952382E-2</v>
+      </c>
+      <c r="J17">
+        <f t="shared" si="0"/>
+        <v>2.9725581110857164</v>
+      </c>
+      <c r="K17">
+        <f t="shared" si="1"/>
+        <v>0.81863001411904768</v>
+      </c>
+    </row>
+    <row r="18" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="F18">
+        <v>40.4</v>
+      </c>
+      <c r="G18">
+        <v>14.38478578059072</v>
+      </c>
+      <c r="H18">
+        <v>8.0196383966244719E-2</v>
+      </c>
+      <c r="I18">
+        <v>4.3766805907172995E-2</v>
+      </c>
+      <c r="J18">
+        <f t="shared" si="0"/>
+        <v>6.1458320642700421</v>
+      </c>
+      <c r="K18">
+        <f t="shared" si="1"/>
+        <v>2.1023288703080167</v>
+      </c>
+    </row>
+    <row r="19" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="F19">
+        <v>40.4</v>
+      </c>
+      <c r="G19">
+        <v>19.276721131578949</v>
+      </c>
+      <c r="H19">
+        <v>0.1338673377192981</v>
+      </c>
+      <c r="I19">
+        <v>7.9635114035087717E-2</v>
+      </c>
+      <c r="J19">
+        <f t="shared" si="0"/>
+        <v>10.19391008014034</v>
+      </c>
+      <c r="K19">
+        <f t="shared" si="1"/>
+        <v>4.0180910757280701</v>
+      </c>
+    </row>
+    <row r="20" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="F20">
+        <v>40.4</v>
+      </c>
+      <c r="G20">
+        <v>24.173323897196266</v>
+      </c>
+      <c r="H20">
+        <v>0.21150199532710273</v>
+      </c>
+      <c r="I20">
+        <v>0.12297035046728971</v>
+      </c>
+      <c r="J20">
+        <f t="shared" si="0"/>
+        <v>16.049426495551398</v>
+      </c>
+      <c r="K20">
+        <f t="shared" si="1"/>
+        <v>6.3326693888084113</v>
+      </c>
+    </row>
+    <row r="21" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="F21">
+        <v>40.4</v>
+      </c>
+      <c r="G21">
+        <v>29.086925831775698</v>
+      </c>
+      <c r="H21">
+        <v>0.30611777102803744</v>
+      </c>
+      <c r="I21">
+        <v>0.17261289252336443</v>
+      </c>
+      <c r="J21">
+        <f t="shared" si="0"/>
+        <v>23.1857267620187</v>
+      </c>
+      <c r="K21">
+        <f t="shared" si="1"/>
+        <v>8.9841272025654177</v>
+      </c>
+    </row>
+    <row r="23" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="F23">
+        <v>60</v>
+      </c>
+      <c r="G23">
+        <v>4.5477281047619078</v>
+      </c>
+      <c r="H23">
+        <v>8.4576571428571379E-3</v>
+      </c>
+      <c r="I23">
+        <v>3.4936714285714317E-3</v>
+      </c>
+      <c r="J23">
+        <f t="shared" si="0"/>
+        <v>0.73501033234285684</v>
+      </c>
+      <c r="K23">
+        <f t="shared" si="1"/>
+        <v>-4.869951532857128E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="F24">
+        <v>60</v>
+      </c>
+      <c r="G24">
+        <v>9.4205184549763015</v>
+      </c>
+      <c r="H24">
+        <v>2.8869061611374404E-2</v>
+      </c>
+      <c r="I24">
+        <v>2.0298246445497638E-2</v>
+      </c>
+      <c r="J24">
+        <f t="shared" si="0"/>
+        <v>2.2745201029763034</v>
+      </c>
+      <c r="K24">
+        <f t="shared" si="1"/>
+        <v>0.84884964090047421</v>
+      </c>
+    </row>
+    <row r="25" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="F25">
+        <v>60</v>
+      </c>
+      <c r="G25">
+        <v>14.318252032710278</v>
+      </c>
+      <c r="H25">
+        <v>5.9706817757009339E-2</v>
+      </c>
+      <c r="I25">
+        <v>4.4794939252336428E-2</v>
+      </c>
+      <c r="J25">
+        <f t="shared" si="0"/>
+        <v>4.6004270225046726</v>
+      </c>
+      <c r="K25">
+        <f t="shared" si="1"/>
+        <v>2.1572425004065412</v>
+      </c>
+    </row>
+    <row r="26" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="F26">
+        <v>60</v>
+      </c>
+      <c r="G26">
+        <v>19.199340346153846</v>
+      </c>
+      <c r="H26">
+        <v>0.11181063942307691</v>
+      </c>
+      <c r="I26">
+        <v>7.9287634615384656E-2</v>
+      </c>
+      <c r="J26">
+        <f t="shared" si="0"/>
+        <v>8.5303056678461537</v>
+      </c>
+      <c r="K26">
+        <f t="shared" si="1"/>
+        <v>3.9995318524423102</v>
+      </c>
+    </row>
+    <row r="27" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="F27">
+        <v>60</v>
+      </c>
+      <c r="G27">
+        <v>24.093243206422038</v>
+      </c>
+      <c r="H27">
+        <v>0.17290096330275218</v>
+      </c>
+      <c r="I27">
+        <v>0.1242839587155964</v>
+      </c>
+      <c r="J27">
+        <f t="shared" si="0"/>
+        <v>13.137982256146781</v>
+      </c>
+      <c r="K27">
+        <f t="shared" si="1"/>
+        <v>6.4028305189587202</v>
+      </c>
+    </row>
+    <row r="28" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="F28">
+        <v>60</v>
+      </c>
+      <c r="G28">
+        <v>28.994503145539902</v>
+      </c>
+      <c r="H28">
+        <v>0.27223730046948358</v>
+      </c>
+      <c r="I28">
+        <v>0.1789450516431926</v>
+      </c>
+      <c r="J28">
+        <f t="shared" si="0"/>
+        <v>20.630326150610333</v>
+      </c>
+      <c r="K28">
+        <f t="shared" si="1"/>
+        <v>9.3223341533145607</v>
+      </c>
+    </row>
+    <row r="30" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="F30">
+        <v>80.2</v>
+      </c>
+      <c r="G30">
+        <v>4.5878353779904302</v>
+      </c>
+      <c r="H30">
+        <v>8.3402488038277524E-3</v>
+      </c>
+      <c r="I30">
+        <v>1.4888325358851679E-3</v>
+      </c>
+      <c r="J30">
+        <f t="shared" si="0"/>
+        <v>0.72615492577990437</v>
+      </c>
+      <c r="K30">
+        <f t="shared" si="1"/>
+        <v>-0.1557799654258373</v>
+      </c>
+    </row>
+    <row r="31" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="F31">
+        <v>80.2</v>
+      </c>
+      <c r="G31">
+        <v>9.3704675596330258</v>
+      </c>
+      <c r="H31">
+        <v>2.4916545871559625E-2</v>
+      </c>
+      <c r="I31">
+        <v>1.943982110091743E-2</v>
+      </c>
+      <c r="J31">
+        <f t="shared" si="0"/>
+        <v>1.9764055558165132</v>
+      </c>
+      <c r="K31">
+        <f t="shared" si="1"/>
+        <v>0.80300028482110086</v>
+      </c>
+    </row>
+    <row r="32" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="F32">
+        <v>80.2</v>
+      </c>
+      <c r="G32">
+        <v>14.361380770186326</v>
+      </c>
+      <c r="H32">
+        <v>5.4993577639751552E-2</v>
+      </c>
+      <c r="I32">
+        <v>4.4261046583850959E-2</v>
+      </c>
+      <c r="J32">
+        <f t="shared" si="0"/>
+        <v>4.2449355999006215</v>
+      </c>
+      <c r="K32">
+        <f t="shared" si="1"/>
+        <v>2.1287267590900636</v>
+      </c>
+    </row>
+    <row r="33" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="F33">
+        <v>80.2</v>
+      </c>
+      <c r="G33">
+        <v>19.187519752066123</v>
+      </c>
+      <c r="H33">
+        <v>9.3964314049586856E-2</v>
+      </c>
+      <c r="I33">
+        <v>7.7856322314049584E-2</v>
+      </c>
+      <c r="J33">
+        <f t="shared" si="0"/>
+        <v>7.1842644228760397</v>
+      </c>
+      <c r="K33">
+        <f t="shared" si="1"/>
+        <v>3.9230840311157027</v>
+      </c>
+    </row>
+    <row r="34" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="F34">
+        <v>80.2</v>
+      </c>
+      <c r="G34">
+        <v>24.04702507999999</v>
+      </c>
+      <c r="H34">
+        <v>0.15702452444444442</v>
+      </c>
+      <c r="I34">
+        <v>0.12703033333333341</v>
+      </c>
+      <c r="J34">
+        <f t="shared" si="0"/>
+        <v>11.940517731697776</v>
+      </c>
+      <c r="K34">
+        <f t="shared" si="1"/>
+        <v>6.5495171336666713</v>
+      </c>
+    </row>
+    <row r="35" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="F35">
+        <v>80.2</v>
+      </c>
+      <c r="G35">
+        <v>28.937301429245274</v>
+      </c>
+      <c r="H35">
+        <v>0.23526721698113207</v>
+      </c>
+      <c r="I35">
+        <v>0.18674326886792447</v>
+      </c>
+      <c r="J35">
+        <f t="shared" si="0"/>
+        <v>17.841894573584909</v>
+      </c>
+      <c r="K35">
+        <f t="shared" si="1"/>
+        <v>9.7388447335047132</v>
+      </c>
+    </row>
+    <row r="37" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="F37">
+        <v>100.2</v>
+      </c>
+      <c r="G37">
+        <v>4.5722621991341965</v>
+      </c>
+      <c r="H37">
+        <v>8.5809783549783657E-3</v>
+      </c>
+      <c r="I37">
+        <v>3.0936450216450229E-3</v>
+      </c>
+      <c r="J37">
+        <f t="shared" si="0"/>
+        <v>0.74431171144588826</v>
+      </c>
+      <c r="K37">
+        <f t="shared" si="1"/>
+        <v>-7.0065325748917689E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="F38">
+        <v>100.2</v>
+      </c>
+      <c r="G38">
+        <v>9.3313662372093038</v>
+      </c>
+      <c r="H38">
+        <v>2.3463413953488381E-2</v>
+      </c>
+      <c r="I38">
+        <v>1.8720293023255813E-2</v>
+      </c>
+      <c r="J38">
+        <f t="shared" si="0"/>
+        <v>1.8668045340279078</v>
+      </c>
+      <c r="K38">
+        <f t="shared" si="1"/>
+        <v>0.76456957066511633</v>
+      </c>
+    </row>
+    <row r="39" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="F39">
+        <v>100.2</v>
+      </c>
+      <c r="G39">
+        <v>14.282469215447152</v>
+      </c>
+      <c r="H39">
+        <v>4.7940239837398368E-2</v>
+      </c>
+      <c r="I39">
+        <v>4.6377121951219513E-2</v>
+      </c>
+      <c r="J39">
+        <f t="shared" si="0"/>
+        <v>3.7129446494959351</v>
+      </c>
+      <c r="K39">
+        <f t="shared" si="1"/>
+        <v>2.2417484605365856</v>
+      </c>
+    </row>
+    <row r="40" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="F40">
+        <v>100.2</v>
+      </c>
+      <c r="G40">
+        <v>19.124854814285722</v>
+      </c>
+      <c r="H40">
+        <v>8.4684600000000013E-2</v>
+      </c>
+      <c r="I40">
+        <v>8.029435714285714E-2</v>
+      </c>
+      <c r="J40">
+        <f t="shared" si="0"/>
+        <v>6.4843512704000013</v>
+      </c>
+      <c r="K40">
+        <f t="shared" si="1"/>
+        <v>4.0533019093571427</v>
+      </c>
+    </row>
+    <row r="41" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="F41">
+        <v>100.2</v>
+      </c>
+      <c r="G41">
+        <v>24.045117539170505</v>
+      </c>
+      <c r="H41">
+        <v>0.1458796543778802</v>
+      </c>
+      <c r="I41">
+        <v>0.12083885253456222</v>
+      </c>
+      <c r="J41">
+        <f t="shared" si="0"/>
+        <v>11.099927051797236</v>
+      </c>
+      <c r="K41">
+        <f t="shared" si="1"/>
+        <v>6.2188239527235032</v>
+      </c>
+    </row>
+    <row r="42" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="F42">
+        <v>100.2</v>
+      </c>
+      <c r="G42">
+        <v>28.966122146666677</v>
+      </c>
+      <c r="H42">
+        <v>0.21873689777777777</v>
+      </c>
+      <c r="I42">
+        <v>0.17510371555555554</v>
+      </c>
+      <c r="J42">
+        <f t="shared" si="0"/>
+        <v>16.595111777991114</v>
+      </c>
+      <c r="K42">
+        <f t="shared" si="1"/>
+        <v>9.1171645515377762</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/4410/Voltage_Data.xlsx
+++ b/4410/Voltage_Data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Logan\Documents\GitHub\Spring2025\4410\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\logan\git-repositories\Spring2025\4410\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11901624-36E8-48A5-BF08-5FC16A0FF630}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{002C5663-DCC9-4105-8EB0-A8E540E666F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="31305" yWindow="2925" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="26">
   <si>
     <t>L</t>
   </si>
@@ -63,6 +63,57 @@
   </si>
   <si>
     <t>D(N)</t>
+  </si>
+  <si>
+    <t>Force</t>
+  </si>
+  <si>
+    <t>(N)</t>
+  </si>
+  <si>
+    <t>H=80.2</t>
+  </si>
+  <si>
+    <t>mm</t>
+  </si>
+  <si>
+    <t>H=100.2</t>
+  </si>
+  <si>
+    <t>Speed</t>
+  </si>
+  <si>
+    <t>(m/s)</t>
+  </si>
+  <si>
+    <t>H=1.2</t>
+  </si>
+  <si>
+    <t>H=19.6</t>
+  </si>
+  <si>
+    <t>H=40.4</t>
+  </si>
+  <si>
+    <t>H=60.0</t>
+  </si>
+  <si>
+    <t>Drag</t>
+  </si>
+  <si>
+    <t>FD</t>
+  </si>
+  <si>
+    <t>Vs</t>
+  </si>
+  <si>
+    <t>FC</t>
+  </si>
+  <si>
+    <t>Vc</t>
+  </si>
+  <si>
+    <t>±</t>
   </si>
 </sst>
 </file>
@@ -1604,10 +1655,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K42"/>
+  <dimension ref="A1:AA54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="L23" sqref="L23:L28"/>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="O49" sqref="O49:Q49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1957,7 +2008,7 @@
         <v>6.2715334086538843E-3</v>
       </c>
     </row>
-    <row r="17" spans="6:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="6:27" x14ac:dyDescent="0.25">
       <c r="F17">
         <v>40.4</v>
       </c>
@@ -1979,7 +2030,7 @@
         <v>0.81863001411904768</v>
       </c>
     </row>
-    <row r="18" spans="6:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="6:27" x14ac:dyDescent="0.25">
       <c r="F18">
         <v>40.4</v>
       </c>
@@ -2001,7 +2052,7 @@
         <v>2.1023288703080167</v>
       </c>
     </row>
-    <row r="19" spans="6:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="6:27" x14ac:dyDescent="0.25">
       <c r="F19">
         <v>40.4</v>
       </c>
@@ -2023,7 +2074,7 @@
         <v>4.0180910757280701</v>
       </c>
     </row>
-    <row r="20" spans="6:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="6:27" x14ac:dyDescent="0.25">
       <c r="F20">
         <v>40.4</v>
       </c>
@@ -2045,7 +2096,7 @@
         <v>6.3326693888084113</v>
       </c>
     </row>
-    <row r="21" spans="6:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="6:27" x14ac:dyDescent="0.25">
       <c r="F21">
         <v>40.4</v>
       </c>
@@ -2067,7 +2118,7 @@
         <v>8.9841272025654177</v>
       </c>
     </row>
-    <row r="23" spans="6:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="6:27" x14ac:dyDescent="0.25">
       <c r="F23">
         <v>60</v>
       </c>
@@ -2089,7 +2140,7 @@
         <v>-4.869951532857128E-2</v>
       </c>
     </row>
-    <row r="24" spans="6:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="6:27" x14ac:dyDescent="0.25">
       <c r="F24">
         <v>60</v>
       </c>
@@ -2111,7 +2162,7 @@
         <v>0.84884964090047421</v>
       </c>
     </row>
-    <row r="25" spans="6:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="6:27" x14ac:dyDescent="0.25">
       <c r="F25">
         <v>60</v>
       </c>
@@ -2133,7 +2184,7 @@
         <v>2.1572425004065412</v>
       </c>
     </row>
-    <row r="26" spans="6:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="6:27" x14ac:dyDescent="0.25">
       <c r="F26">
         <v>60</v>
       </c>
@@ -2155,7 +2206,7 @@
         <v>3.9995318524423102</v>
       </c>
     </row>
-    <row r="27" spans="6:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="6:27" x14ac:dyDescent="0.25">
       <c r="F27">
         <v>60</v>
       </c>
@@ -2177,7 +2228,7 @@
         <v>6.4028305189587202</v>
       </c>
     </row>
-    <row r="28" spans="6:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="6:27" x14ac:dyDescent="0.25">
       <c r="F28">
         <v>60</v>
       </c>
@@ -2199,7 +2250,42 @@
         <v>9.3223341533145607</v>
       </c>
     </row>
-    <row r="30" spans="6:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="6:27" x14ac:dyDescent="0.25">
+      <c r="N29" t="s">
+        <v>14</v>
+      </c>
+      <c r="O29" t="s">
+        <v>16</v>
+      </c>
+      <c r="P29" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>18</v>
+      </c>
+      <c r="R29" t="s">
+        <v>19</v>
+      </c>
+      <c r="S29" t="s">
+        <v>11</v>
+      </c>
+      <c r="T29" t="s">
+        <v>13</v>
+      </c>
+      <c r="U29" t="s">
+        <v>12</v>
+      </c>
+      <c r="W29" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA29" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="30" spans="6:27" x14ac:dyDescent="0.25">
       <c r="F30">
         <v>80.2</v>
       </c>
@@ -2220,8 +2306,29 @@
         <f t="shared" si="1"/>
         <v>-0.1557799654258373</v>
       </c>
-    </row>
-    <row r="31" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="N30">
+        <v>5</v>
+      </c>
+      <c r="O30">
+        <v>-0.09</v>
+      </c>
+      <c r="P30">
+        <v>0.45</v>
+      </c>
+      <c r="Q30">
+        <v>0.31</v>
+      </c>
+      <c r="R30">
+        <v>0.22</v>
+      </c>
+      <c r="S30">
+        <v>0.21</v>
+      </c>
+      <c r="T30">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="31" spans="6:27" x14ac:dyDescent="0.25">
       <c r="F31">
         <v>80.2</v>
       </c>
@@ -2242,8 +2349,29 @@
         <f t="shared" si="1"/>
         <v>0.80300028482110086</v>
       </c>
-    </row>
-    <row r="32" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="N31">
+        <v>10</v>
+      </c>
+      <c r="O31">
+        <v>-0.26</v>
+      </c>
+      <c r="P31">
+        <v>2.2200000000000002</v>
+      </c>
+      <c r="Q31">
+        <v>1.8</v>
+      </c>
+      <c r="R31">
+        <v>1.31</v>
+      </c>
+      <c r="S31">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="T31">
+        <v>1.02</v>
+      </c>
+    </row>
+    <row r="32" spans="6:27" x14ac:dyDescent="0.25">
       <c r="F32">
         <v>80.2</v>
       </c>
@@ -2264,8 +2392,29 @@
         <f t="shared" si="1"/>
         <v>2.1287267590900636</v>
       </c>
-    </row>
-    <row r="33" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="N32">
+        <v>15</v>
+      </c>
+      <c r="O32">
+        <v>-0.24</v>
+      </c>
+      <c r="P32">
+        <v>5.07</v>
+      </c>
+      <c r="Q32">
+        <v>4.05</v>
+      </c>
+      <c r="R32">
+        <v>2.95</v>
+      </c>
+      <c r="S32">
+        <v>2.7</v>
+      </c>
+      <c r="T32">
+        <v>2.33</v>
+      </c>
+    </row>
+    <row r="33" spans="6:27" x14ac:dyDescent="0.25">
       <c r="F33">
         <v>80.2</v>
       </c>
@@ -2286,8 +2435,29 @@
         <f t="shared" si="1"/>
         <v>3.9230840311157027</v>
       </c>
-    </row>
-    <row r="34" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="N33">
+        <v>20</v>
+      </c>
+      <c r="O33">
+        <v>0.8</v>
+      </c>
+      <c r="P33">
+        <v>8.86</v>
+      </c>
+      <c r="Q33">
+        <v>6.91</v>
+      </c>
+      <c r="R33">
+        <v>5.74</v>
+      </c>
+      <c r="S33">
+        <v>4.78</v>
+      </c>
+      <c r="T33">
+        <v>4.29</v>
+      </c>
+    </row>
+    <row r="34" spans="6:27" x14ac:dyDescent="0.25">
       <c r="F34">
         <v>80.2</v>
       </c>
@@ -2308,8 +2478,29 @@
         <f t="shared" si="1"/>
         <v>6.5495171336666713</v>
       </c>
-    </row>
-    <row r="35" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="N34">
+        <v>25</v>
+      </c>
+      <c r="O34">
+        <v>1.24</v>
+      </c>
+      <c r="P34">
+        <v>14.03</v>
+      </c>
+      <c r="Q34">
+        <v>11.06</v>
+      </c>
+      <c r="R34">
+        <v>9</v>
+      </c>
+      <c r="S34">
+        <v>8.15</v>
+      </c>
+      <c r="T34">
+        <v>7.56</v>
+      </c>
+    </row>
+    <row r="35" spans="6:27" x14ac:dyDescent="0.25">
       <c r="F35">
         <v>80.2</v>
       </c>
@@ -2330,8 +2521,29 @@
         <f t="shared" si="1"/>
         <v>9.7388447335047132</v>
       </c>
-    </row>
-    <row r="37" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="N35">
+        <v>30</v>
+      </c>
+      <c r="O35">
+        <v>5.09</v>
+      </c>
+      <c r="P35">
+        <v>20.22</v>
+      </c>
+      <c r="Q35">
+        <v>16.11</v>
+      </c>
+      <c r="R35">
+        <v>14.31</v>
+      </c>
+      <c r="S35">
+        <v>12.33</v>
+      </c>
+      <c r="T35">
+        <v>11.45</v>
+      </c>
+    </row>
+    <row r="37" spans="6:27" x14ac:dyDescent="0.25">
       <c r="F37">
         <v>100.2</v>
       </c>
@@ -2353,7 +2565,7 @@
         <v>-7.0065325748917689E-2</v>
       </c>
     </row>
-    <row r="38" spans="6:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="6:27" x14ac:dyDescent="0.25">
       <c r="F38">
         <v>100.2</v>
       </c>
@@ -2374,8 +2586,17 @@
         <f t="shared" si="1"/>
         <v>0.76456957066511633</v>
       </c>
-    </row>
-    <row r="39" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="N38" t="s">
+        <v>20</v>
+      </c>
+      <c r="O38" t="s">
+        <v>9</v>
+      </c>
+      <c r="P38" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39" spans="6:27" x14ac:dyDescent="0.25">
       <c r="F39">
         <v>100.2</v>
       </c>
@@ -2396,8 +2617,50 @@
         <f t="shared" si="1"/>
         <v>2.2417484605365856</v>
       </c>
-    </row>
-    <row r="40" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="N39" t="s">
+        <v>14</v>
+      </c>
+      <c r="O39" t="s">
+        <v>15</v>
+      </c>
+      <c r="P39" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q39" t="s">
+        <v>12</v>
+      </c>
+      <c r="R39" t="s">
+        <v>17</v>
+      </c>
+      <c r="S39" t="s">
+        <v>12</v>
+      </c>
+      <c r="T39" t="s">
+        <v>18</v>
+      </c>
+      <c r="U39" t="s">
+        <v>12</v>
+      </c>
+      <c r="V39" t="s">
+        <v>19</v>
+      </c>
+      <c r="W39" t="s">
+        <v>12</v>
+      </c>
+      <c r="X39" t="s">
+        <v>11</v>
+      </c>
+      <c r="Y39" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z39" t="s">
+        <v>13</v>
+      </c>
+      <c r="AA39" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="40" spans="6:27" x14ac:dyDescent="0.25">
       <c r="F40">
         <v>100.2</v>
       </c>
@@ -2418,8 +2681,29 @@
         <f t="shared" si="1"/>
         <v>4.0533019093571427</v>
       </c>
-    </row>
-    <row r="41" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="N40">
+        <v>5</v>
+      </c>
+      <c r="O40">
+        <v>0.62</v>
+      </c>
+      <c r="P40">
+        <v>0.39</v>
+      </c>
+      <c r="Q40">
+        <v>0.44</v>
+      </c>
+      <c r="R40">
+        <v>0.36</v>
+      </c>
+      <c r="S40">
+        <v>0.21</v>
+      </c>
+      <c r="T40">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="41" spans="6:27" x14ac:dyDescent="0.25">
       <c r="F41">
         <v>100.2</v>
       </c>
@@ -2440,8 +2724,29 @@
         <f t="shared" si="1"/>
         <v>6.2188239527235032</v>
       </c>
-    </row>
-    <row r="42" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="N41">
+        <v>10</v>
+      </c>
+      <c r="O41">
+        <v>1.71</v>
+      </c>
+      <c r="P41">
+        <v>1.57</v>
+      </c>
+      <c r="Q41">
+        <v>1.59</v>
+      </c>
+      <c r="R41">
+        <v>1.63</v>
+      </c>
+      <c r="S41">
+        <v>1.56</v>
+      </c>
+      <c r="T41">
+        <v>1.51</v>
+      </c>
+    </row>
+    <row r="42" spans="6:27" x14ac:dyDescent="0.25">
       <c r="F42">
         <v>100.2</v>
       </c>
@@ -2461,6 +2766,149 @@
       <c r="K42">
         <f t="shared" si="1"/>
         <v>9.1171645515377762</v>
+      </c>
+      <c r="N42">
+        <v>15</v>
+      </c>
+      <c r="O42">
+        <v>3.77</v>
+      </c>
+      <c r="P42">
+        <v>3.33</v>
+      </c>
+      <c r="Q42">
+        <v>3.4</v>
+      </c>
+      <c r="R42">
+        <v>3.48</v>
+      </c>
+      <c r="S42">
+        <v>3.44</v>
+      </c>
+      <c r="T42">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="43" spans="6:27" x14ac:dyDescent="0.25">
+      <c r="N43">
+        <v>20</v>
+      </c>
+      <c r="O43">
+        <v>7.35</v>
+      </c>
+      <c r="P43">
+        <v>5.71</v>
+      </c>
+      <c r="Q43">
+        <v>6.1</v>
+      </c>
+      <c r="R43">
+        <v>6.08</v>
+      </c>
+      <c r="S43">
+        <v>5.97</v>
+      </c>
+      <c r="T43">
+        <v>6.15</v>
+      </c>
+    </row>
+    <row r="44" spans="6:27" x14ac:dyDescent="0.25">
+      <c r="N44">
+        <v>25</v>
+      </c>
+      <c r="O44">
+        <v>9.9700000000000006</v>
+      </c>
+      <c r="P44">
+        <v>8.8699999999999992</v>
+      </c>
+      <c r="Q44">
+        <v>9.3699999999999992</v>
+      </c>
+      <c r="R44">
+        <v>9.4700000000000006</v>
+      </c>
+      <c r="S44">
+        <v>9.68</v>
+      </c>
+      <c r="T44">
+        <v>9.2100000000000009</v>
+      </c>
+    </row>
+    <row r="45" spans="6:27" x14ac:dyDescent="0.25">
+      <c r="N45">
+        <v>30</v>
+      </c>
+      <c r="O45">
+        <v>15.35</v>
+      </c>
+      <c r="P45">
+        <v>12.68</v>
+      </c>
+      <c r="Q45">
+        <v>13.12</v>
+      </c>
+      <c r="R45">
+        <v>13.59</v>
+      </c>
+      <c r="S45">
+        <v>14.18</v>
+      </c>
+      <c r="T45">
+        <v>13.3</v>
+      </c>
+    </row>
+    <row r="48" spans="6:27" x14ac:dyDescent="0.25">
+      <c r="O48" t="s">
+        <v>21</v>
+      </c>
+      <c r="P48" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q48" t="s">
+        <v>23</v>
+      </c>
+      <c r="R48" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="49" spans="14:17" x14ac:dyDescent="0.25">
+      <c r="N49">
+        <v>1.2</v>
+      </c>
+      <c r="O49">
+        <v>11218.053099999999</v>
+      </c>
+      <c r="P49" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q49">
+        <v>107.4508</v>
+      </c>
+    </row>
+    <row r="50" spans="14:17" x14ac:dyDescent="0.25">
+      <c r="N50">
+        <v>19.600000000000001</v>
+      </c>
+    </row>
+    <row r="51" spans="14:17" x14ac:dyDescent="0.25">
+      <c r="N51">
+        <v>40.4</v>
+      </c>
+    </row>
+    <row r="52" spans="14:17" x14ac:dyDescent="0.25">
+      <c r="N52">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="53" spans="14:17" x14ac:dyDescent="0.25">
+      <c r="N53">
+        <v>80.2</v>
+      </c>
+    </row>
+    <row r="54" spans="14:17" x14ac:dyDescent="0.25">
+      <c r="N54">
+        <v>100.2</v>
       </c>
     </row>
   </sheetData>
